--- a/project_euler/p117.xlsx
+++ b/project_euler/p117.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\4-Python\project_euler\p117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B35154-20E3-4E47-AA41-6C1D7E47AA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E136C-8BE7-4E97-BCFA-A6DCA4B95189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3729D78D-0EEE-44EA-848C-614F97C7D929}"/>
+    <workbookView xWindow="0" yWindow="1395" windowWidth="23880" windowHeight="13500" xr2:uid="{3729D78D-0EEE-44EA-848C-614F97C7D929}"/>
   </bookViews>
   <sheets>
     <sheet name="p117" sheetId="2" r:id="rId1"/>
@@ -1924,16 +1924,17 @@
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="J50:K50"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
     <mergeCell ref="H70:J70"/>
     <mergeCell ref="K70:M70"/>
     <mergeCell ref="H71:K71"/>
@@ -1944,22 +1945,21 @@
     <mergeCell ref="J67:L67"/>
     <mergeCell ref="K68:M68"/>
     <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:M69"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
     <mergeCell ref="K62:M62"/>
     <mergeCell ref="H63:J63"/>
     <mergeCell ref="K63:M63"/>
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="K64:L64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="J61:L61"/>
     <mergeCell ref="J73:M73"/>
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
@@ -1974,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E716DC17-CAC8-4098-8F39-AA0E7B7A1176}">
   <dimension ref="A2:V75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="8"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2346,11 +2346,11 @@
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
       <c r="J18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="8"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -2373,11 +2373,11 @@
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2398,12 +2398,12 @@
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2475,10 +2475,10 @@
       <c r="I23" s="8"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="8"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
@@ -2503,10 +2503,10 @@
       <c r="J24" s="8"/>
       <c r="K24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="8"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2531,10 +2531,10 @@
       <c r="K25" s="8"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="8"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2556,12 +2556,12 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="8"/>
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="8"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2583,11 +2583,11 @@
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
       <c r="K27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2611,11 +2611,11 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2637,12 +2637,12 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="6"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2716,9 +2716,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -2745,9 +2745,9 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="8"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
@@ -2774,9 +2774,9 @@
       <c r="L34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="8"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -2803,9 +2803,9 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="8"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2828,11 +2828,11 @@
       <c r="J36" s="7"/>
       <c r="K36" s="8"/>
       <c r="L36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="8"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -2857,11 +2857,11 @@
       <c r="K37" s="7"/>
       <c r="L37" s="8"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="8"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2884,12 +2884,12 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="8"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -2912,10 +2912,10 @@
       <c r="J39" s="11"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="11"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
@@ -2941,10 +2941,10 @@
       <c r="K40" s="11"/>
       <c r="L40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="11"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -2970,10 +2970,10 @@
       <c r="L41" s="11"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="11"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -2996,12 +2996,12 @@
       <c r="J42" s="11"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="8"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3024,12 +3024,12 @@
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
       <c r="L43" s="11"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="11"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3052,11 +3052,11 @@
       <c r="J44" s="5"/>
       <c r="K44" s="6"/>
       <c r="L44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3081,11 +3081,11 @@
       <c r="K45" s="5"/>
       <c r="L45" s="6"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="5"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -3534,72 +3534,72 @@
   </sheetData>
   <mergeCells count="136">
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="R19:S19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Q20:S20"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="Q27:S27"/>
     <mergeCell ref="I28:K28"/>
-    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="R28:T28"/>
     <mergeCell ref="H29:K29"/>
-    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="Q29:T29"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R24:S24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="S25:T25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
+    <mergeCell ref="Q26:R26"/>
     <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="T35:U35"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="Q32:R32"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="R33:S33"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="Q39:S39"/>
     <mergeCell ref="I40:K40"/>
-    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="R40:T40"/>
     <mergeCell ref="J41:L41"/>
-    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="S41:U41"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
     <mergeCell ref="H44:K44"/>
-    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="Q44:T44"/>
     <mergeCell ref="I45:L45"/>
-    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="R45:U45"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="Q48:R48"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="K42:L42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:U42"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:L43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="S51:T51"/>
@@ -5015,6 +5015,7 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="H26:I26"/>
@@ -5049,6 +5050,7 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="I45:L45"/>
     <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:L46"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="H57:I57"/>
@@ -5070,22 +5072,20 @@
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:M69"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H46:L46"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:M70"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="K71:M71"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="J62:L62"/>
     <mergeCell ref="K63:M63"/>
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="K64:M64"/>
     <mergeCell ref="H65:J65"/>
     <mergeCell ref="K65:L65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="J62:L62"/>
     <mergeCell ref="H77:L77"/>
     <mergeCell ref="I78:M78"/>
     <mergeCell ref="J74:M74"/>

--- a/project_euler/p117.xlsx
+++ b/project_euler/p117.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\4-Python\project_euler\p117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E136C-8BE7-4E97-BCFA-A6DCA4B95189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A1C48D-BDAC-4617-903D-C73CB0C069ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1395" windowWidth="23880" windowHeight="13500" xr2:uid="{3729D78D-0EEE-44EA-848C-614F97C7D929}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3729D78D-0EEE-44EA-848C-614F97C7D929}"/>
   </bookViews>
   <sheets>
     <sheet name="p117" sheetId="2" r:id="rId1"/>
@@ -226,15 +226,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,13 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,6 +257,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -284,6 +284,450 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E81DDF3-9F09-424B-9FC1-12D89F7CF4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7019925" y="381000"/>
+          <a:ext cx="4676775" cy="5334000"/>
+          <a:chOff x="7839075" y="0"/>
+          <a:chExt cx="4676775" cy="5334000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A1F4A9-8693-4252-B524-A57F095B1BD5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7839075" y="0"/>
+            <a:ext cx="4676775" cy="5334000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Red, green, and blue tiles</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Problem 117</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Using a combination of grey square tiles and oblong tiles chosen from: red tiles (measuring two units), green tiles (measuring three units), and blue tiles (measuring four units), it is possible to tile a row measuring five units in length in exactly fifteen different ways.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>How many ways can a row measuring fifty units in length be tiled?</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>NOTE: This is related to Problem 116.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A83F83-9790-4F28-9E41-D00D3090F52A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8839527" y="1104900"/>
+            <a:ext cx="2619048" cy="3590476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,8 +1069,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="O3">
         <v>2</v>
       </c>
@@ -647,9 +1091,9 @@
         <f>SUM(D3)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="O4">
         <v>3</v>
       </c>
@@ -670,10 +1114,10 @@
         <f>SUM(D3:D4)</f>
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
       <c r="O5">
         <v>4</v>
       </c>
@@ -874,8 +1318,8 @@
         <f t="shared" si="2"/>
         <v>1490</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -936,8 +1380,8 @@
         <f t="shared" si="2"/>
         <v>10671</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -957,8 +1401,8 @@
         <v>20569</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -976,9 +1420,9 @@
         <f t="shared" si="2"/>
         <v>39648</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1040,8 +1484,8 @@
         <f t="shared" si="2"/>
         <v>283953</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
@@ -1062,8 +1506,8 @@
         <v>547337</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1084,8 +1528,8 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1103,10 +1547,10 @@
         <f t="shared" si="2"/>
         <v>2033628</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1124,9 +1568,9 @@
         <f t="shared" si="2"/>
         <v>3919944</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1146,9 +1590,9 @@
         <v>7555935</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1166,10 +1610,10 @@
         <f t="shared" si="2"/>
         <v>14564533</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1232,8 +1676,8 @@
         <f t="shared" si="2"/>
         <v>104308960</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1255,8 +1699,8 @@
         <v>201061985</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
@@ -1278,8 +1722,8 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -1301,8 +1745,8 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1320,10 +1764,10 @@
         <f t="shared" si="2"/>
         <v>1439975216</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -1342,11 +1786,11 @@
         <f t="shared" si="2"/>
         <v>2775641472</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1365,10 +1809,10 @@
         <v>5350220959</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1386,9 +1830,9 @@
         <f t="shared" si="2"/>
         <v>10312882481</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
@@ -1409,9 +1853,9 @@
         <v>19878720128</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -1432,9 +1876,9 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1452,11 +1896,11 @@
         <f t="shared" si="2"/>
         <v>73859288608</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1474,11 +1918,11 @@
         <f t="shared" si="2"/>
         <v>142368356257</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1496,10 +1940,10 @@
         <f t="shared" si="2"/>
         <v>274423830033</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -1519,10 +1963,10 @@
         <v>528968939938</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -1586,8 +2030,8 @@
         <f t="shared" si="2"/>
         <v>3788394725871</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -1610,8 +2054,8 @@
         <v>7302365621709</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -1634,8 +2078,8 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="8"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
@@ -1658,8 +2102,8 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="5"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -1682,8 +2126,8 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -1701,202 +2145,245 @@
         <f t="shared" si="2"/>
         <v>100808458960497</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="8"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H54" s="2"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="5"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="5"/>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H57" s="2"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="8"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="11"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H60" s="2"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="8"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="8"/>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="11"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="8"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H63" s="9"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="11"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="8"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H64" s="9"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="5"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H65" s="9"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="11"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="8"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="5"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H66" s="2"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="11"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8"/>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H68" s="7"/>
-      <c r="I68" s="8"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="11"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="8"/>
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H69" s="2"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="11"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H70" s="9"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="11"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
     </row>
     <row r="71" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H71" s="4"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="6"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="11"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H72" s="2"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="6"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="6"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="11"/>
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H74" s="4"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="5"/>
     </row>
     <row r="75" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H75" s="7"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="6"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="J50:K50"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="H29:K29"/>
@@ -1911,62 +2398,20 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2014,8 +2459,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="O3">
         <v>2</v>
       </c>
@@ -2036,9 +2481,9 @@
         <f>SUM(D3)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="O4">
         <v>3</v>
       </c>
@@ -2059,10 +2504,10 @@
         <f>SUM(D3:D4)</f>
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
       <c r="O5">
         <v>4</v>
       </c>
@@ -2269,10 +2714,10 @@
         <f t="shared" si="2"/>
         <v>1490</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2343,11 +2788,11 @@
         <f t="shared" si="2"/>
         <v>10671</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="2"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="8"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2370,11 +2815,11 @@
         <v>20569</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -2395,12 +2840,12 @@
         <f t="shared" si="2"/>
         <v>39648</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2471,12 +2916,12 @@
         <f t="shared" si="2"/>
         <v>283953</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="8"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2499,12 +2944,12 @@
         <v>547337</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -2527,12 +2972,12 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="8"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="5"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
@@ -2552,14 +2997,14 @@
         <f t="shared" si="2"/>
         <v>2033628</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="5"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
@@ -2579,13 +3024,13 @@
         <f t="shared" si="2"/>
         <v>3919944</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="2"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="11"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="8"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -2607,13 +3052,13 @@
         <v>7555935</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="11"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="8"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
@@ -2633,14 +3078,14 @@
         <f t="shared" si="2"/>
         <v>14564533</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="6"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="11"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
@@ -2711,13 +3156,13 @@
         <f t="shared" si="2"/>
         <v>104308960</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="8"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -2740,13 +3185,13 @@
         <v>201061985</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="8"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -2769,13 +3214,13 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="8"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="5"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
@@ -2798,13 +3243,13 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="8"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="5"/>
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -2823,15 +3268,15 @@
         <f t="shared" si="2"/>
         <v>1439975216</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="2"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="8"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="5"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
@@ -2851,16 +3296,16 @@
         <f t="shared" si="2"/>
         <v>2775641472</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="8"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="5"/>
       <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -2880,15 +3325,15 @@
         <v>5350220959</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="8"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="5"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="8"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="5"/>
       <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -2907,14 +3352,14 @@
         <f t="shared" si="2"/>
         <v>10312882481</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="11"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="8"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -2936,14 +3381,14 @@
         <v>19878720128</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="11"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="8"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
@@ -2965,14 +3410,14 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="11"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="8"/>
       <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -2991,16 +3436,16 @@
         <f t="shared" si="2"/>
         <v>73859288608</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="8"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="5"/>
       <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -3019,16 +3464,16 @@
         <f t="shared" si="2"/>
         <v>142368356257</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="11"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="8"/>
       <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3047,15 +3492,15 @@
         <f t="shared" si="2"/>
         <v>274423830033</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="2"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="6"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="11"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
@@ -3076,15 +3521,15 @@
         <v>528968939938</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="6"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="11"/>
       <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3149,14 +3594,14 @@
         <f t="shared" si="2"/>
         <v>3788394725871</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="8"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="5"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -3179,15 +3624,15 @@
         <v>7302365621709</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="8"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="5"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
@@ -3209,15 +3654,15 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="8"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="8"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="5"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="8"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="5"/>
       <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -3239,15 +3684,15 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="5"/>
       <c r="M51" s="2"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="8"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -3269,11 +3714,11 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="11"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="8"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -3294,340 +3739,269 @@
         <f t="shared" si="2"/>
         <v>100808458960497</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="8"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="11"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="8"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H54" s="2"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="5"/>
       <c r="M54" s="2"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="8"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="5"/>
       <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="11"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="8"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="8"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="5"/>
       <c r="M56" s="2"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="11"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="8"/>
       <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H57" s="2"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="8"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="8"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="5"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="2"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="11"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="8"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="11"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="5"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="8"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="11"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="6"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="11"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H60" s="2"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="8"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="8"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="5"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="8"/>
       <c r="M61" s="2"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="6"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="11"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="11"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="8"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H63" s="9"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="11"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="8"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H64" s="9"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="5"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H65" s="9"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="11"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="8"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="5"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H66" s="2"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="11"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8"/>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H68" s="7"/>
-      <c r="I68" s="8"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="11"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="8"/>
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H69" s="2"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="11"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H70" s="9"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="11"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
     </row>
     <row r="71" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H71" s="4"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="6"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="11"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H72" s="2"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="6"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="6"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="11"/>
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H74" s="4"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="5"/>
     </row>
     <row r="75" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H75" s="7"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="6"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="L65:M65"/>
     <mergeCell ref="H59:J59"/>
     <mergeCell ref="Q59:T59"/>
     <mergeCell ref="I60:K60"/>
@@ -3645,30 +4019,101 @@
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="Q58:S58"/>
     <mergeCell ref="T58:V58"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="Q18:R18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3718,8 +4163,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="O3">
         <v>2</v>
       </c>
@@ -3740,9 +4185,9 @@
         <f>SUM(D3)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="O4">
         <v>3</v>
       </c>
@@ -3763,10 +4208,10 @@
         <f>SUM(D3:D4)</f>
         <v>2</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
       <c r="O5">
         <v>4</v>
       </c>
@@ -3787,11 +4232,11 @@
         <f>SUM(D3:D5)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="O6">
         <v>5</v>
       </c>
@@ -3975,8 +4420,8 @@
         <f t="shared" si="2"/>
         <v>1793</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4037,8 +4482,8 @@
         <f t="shared" si="2"/>
         <v>13624</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4058,8 +4503,8 @@
         <v>26784</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4077,9 +4522,9 @@
         <f t="shared" si="2"/>
         <v>52656</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4141,8 +4586,8 @@
         <f t="shared" si="2"/>
         <v>400096</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
@@ -4163,8 +4608,8 @@
         <v>786568</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -4185,8 +4630,8 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4204,10 +4649,10 @@
         <f t="shared" si="2"/>
         <v>3040048</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4225,9 +4670,9 @@
         <f t="shared" si="2"/>
         <v>5976577</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -4247,9 +4692,9 @@
         <v>11749641</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4267,10 +4712,10 @@
         <f t="shared" si="2"/>
         <v>23099186</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4333,8 +4778,8 @@
         <f t="shared" si="2"/>
         <v>175514464</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -4356,8 +4801,8 @@
         <v>345052351</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
@@ -4379,8 +4824,8 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -4402,8 +4847,8 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4421,10 +4866,10 @@
         <f t="shared" si="2"/>
         <v>2621810068</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -4443,11 +4888,11 @@
         <f t="shared" si="2"/>
         <v>5154342880</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4466,10 +4911,10 @@
         <v>10133171296</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4487,9 +4932,9 @@
         <f t="shared" si="2"/>
         <v>19921290241</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
@@ -4510,9 +4955,9 @@
         <v>39164225421</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -4533,9 +4978,9 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4553,11 +4998,11 @@
         <f t="shared" si="2"/>
         <v>151367869744</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -4575,11 +5020,11 @@
         <f t="shared" si="2"/>
         <v>297581396608</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -4597,10 +5042,10 @@
         <f t="shared" si="2"/>
         <v>585029621920</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -4620,10 +5065,10 @@
         <v>1150137953599</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -4641,11 +5086,11 @@
         <f t="shared" si="2"/>
         <v>2261111681777</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -4709,8 +5154,8 @@
         <f t="shared" si="2"/>
         <v>17180596958496</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="8"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -4733,8 +5178,8 @@
         <v>33776164295072</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4757,8 +5202,8 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
@@ -4781,8 +5226,8 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="5"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -4805,265 +5250,228 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="8"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H54" s="7"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="8"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="5"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="8"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H57" s="7"/>
-      <c r="I57" s="8"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="5"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H58" s="2"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="8"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="8"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H60" s="9"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="11"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="8"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H61" s="2"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="11"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="8"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="11"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="8"/>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="11"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="8"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H64" s="9"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="11"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="8"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H65" s="9"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="5"/>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H66" s="9"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="11"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="8"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H67" s="2"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="8"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="5"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H68" s="7"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="8"/>
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H69" s="7"/>
-      <c r="I69" s="8"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="11"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H70" s="2"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="11"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
     </row>
     <row r="71" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H71" s="9"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="11"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="8"/>
     </row>
     <row r="72" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H72" s="4"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="6"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="11"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H73" s="2"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="6"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="6"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="11"/>
     </row>
     <row r="75" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H75" s="4"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="5"/>
     </row>
     <row r="76" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H76" s="7"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="6"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="11"/>
     </row>
     <row r="77" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H77" s="12"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="17"/>
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H78" s="2"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="14"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="I73:L73"/>
     <mergeCell ref="I67:K67"/>
@@ -5076,23 +5484,60 @@
     <mergeCell ref="K70:M70"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="K71:M71"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
